--- a/garden.xlsx
+++ b/garden.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="Январь" sheetId="1" r:id="rId1"/>
-    <sheet name="Февраль" sheetId="2" r:id="rId2"/>
-    <sheet name="Март" sheetId="3" r:id="rId3"/>
-    <sheet name="Апрель" sheetId="4" r:id="rId4"/>
-    <sheet name="Май" sheetId="5" r:id="rId5"/>
-    <sheet name="Июнь" sheetId="6" r:id="rId6"/>
-    <sheet name="Июль" sheetId="7" r:id="rId7"/>
-    <sheet name="Август" sheetId="8" r:id="rId8"/>
-    <sheet name="Сентябрь" sheetId="9" r:id="rId9"/>
-    <sheet name="Октябрь" sheetId="10" r:id="rId10"/>
-    <sheet name="Ноябрь" sheetId="11" r:id="rId11"/>
-    <sheet name="Декабрь" sheetId="12" r:id="rId12"/>
+    <sheet name="January" sheetId="13" r:id="rId1"/>
+    <sheet name="February" sheetId="2" r:id="rId2"/>
+    <sheet name="March" sheetId="3" r:id="rId3"/>
+    <sheet name="April" sheetId="4" r:id="rId4"/>
+    <sheet name="May" sheetId="5" r:id="rId5"/>
+    <sheet name="June" sheetId="6" r:id="rId6"/>
+    <sheet name="July" sheetId="7" r:id="rId7"/>
+    <sheet name="August" sheetId="8" r:id="rId8"/>
+    <sheet name="September" sheetId="9" r:id="rId9"/>
+    <sheet name="October" sheetId="10" r:id="rId10"/>
+    <sheet name="November" sheetId="11" r:id="rId11"/>
+    <sheet name="December" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="64">
   <si>
     <t>Плодовый сад</t>
   </si>
@@ -10756,17 +10756,31 @@
       <t>(выдернуть) укрывной материал, иначе при потеплении начнется выпревание растений</t>
     </r>
   </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10832,42 +10846,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11153,77 +11163,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="152" style="15" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="152" style="13" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="264" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" ht="264" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="2:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="D3" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="2:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="2:4" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="2:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11233,77 +11233,82 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="3" customWidth="1"/>
-    <col min="2" max="2" width="152" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="3" max="3" width="152" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="D3" s="2"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="213.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" ht="213.75" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11313,78 +11318,85 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="3" customWidth="1"/>
-    <col min="2" max="2" width="157.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="3" max="3" width="157.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="D3" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11394,78 +11406,85 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="3" customWidth="1"/>
-    <col min="2" max="2" width="155.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="3" max="3" width="155.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="D3" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11475,78 +11494,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="3" customWidth="1"/>
-    <col min="2" max="2" width="155" style="12" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="3" max="3" width="155" style="10" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="D3" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11556,63 +11580,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="3" customWidth="1"/>
-    <col min="2" max="2" width="154.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="3" max="3" width="154.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="D3" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11622,62 +11667,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="138.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="52.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="138.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11687,62 +11754,84 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="6" customWidth="1"/>
-    <col min="2" max="2" width="156.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="35" style="4" customWidth="1"/>
+    <col min="3" max="3" width="156.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11752,62 +11841,84 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="6" customWidth="1"/>
-    <col min="2" max="2" width="164.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="35" style="4" customWidth="1"/>
+    <col min="3" max="3" width="164.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11817,78 +11928,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="6" customWidth="1"/>
-    <col min="2" max="2" width="163.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="35" style="4" customWidth="1"/>
+    <col min="3" max="3" width="163.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="D3" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11898,63 +12016,85 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="3" customWidth="1"/>
-    <col min="2" max="2" width="157.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="3" max="3" width="157.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="D3" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11964,78 +12104,85 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="3" customWidth="1"/>
-    <col min="2" max="2" width="160.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="35" style="3" customWidth="1"/>
+    <col min="3" max="3" width="160.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="D3" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
